--- a/Spartan7_TriggerLogic/PSU_Stamp/Spartan7_PSU_Stamp_V0/BOM/PSU_Stamp_BOM.xlsx
+++ b/Spartan7_TriggerLogic/PSU_Stamp/Spartan7_PSU_Stamp_V0/BOM/PSU_Stamp_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Documents\IKP\HYDRA\HYDRA_VMM3_Adapter\Spartan7_TriggerLogic\PSU_Stamp\Spartan7_PSU_Stamp_V0\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4835BDA2-DDAC-4044-B22F-AE7D11664A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060C114B-FC3A-4F53-ADF2-32A5F874DD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2232" yWindow="6036" windowWidth="33960" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>LDO</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>C0805C106K8RACTU</t>
+  </si>
+  <si>
+    <t>0402 LED Green</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,6 +464,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{867AA51F-5087-42CB-BB6B-1AC9077D4EC5}"/>

--- a/Spartan7_TriggerLogic/PSU_Stamp/Spartan7_PSU_Stamp_V0/BOM/PSU_Stamp_BOM.xlsx
+++ b/Spartan7_TriggerLogic/PSU_Stamp/Spartan7_PSU_Stamp_V0/BOM/PSU_Stamp_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Documents\IKP\HYDRA\HYDRA_VMM3_Adapter\Spartan7_TriggerLogic\PSU_Stamp\Spartan7_PSU_Stamp_V0\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060C114B-FC3A-4F53-ADF2-32A5F874DD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F55FA-8326-4500-A24A-324258396DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2232" yWindow="6036" windowWidth="33960" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>LDO</t>
   </si>
@@ -61,6 +61,27 @@
   </si>
   <si>
     <t>0402 LED Green</t>
+  </si>
+  <si>
+    <t>heatsink 24x24x14mm</t>
+  </si>
+  <si>
+    <t>heatsink 24x24x10mm</t>
+  </si>
+  <si>
+    <t>ATS024024014-SF-8M</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>ATS024024010-SF-8i</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Advanced-Thermal-Solutions/ATS024024014-SF-8M?qs=9vOqFld9vZUhD4gLG7MQxw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Advanced-Thermal-Solutions/ATS024024010-SF-8I?qs=9vOqFld9vZWxOh9SEW0GcA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -397,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,13 +490,49 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{867AA51F-5087-42CB-BB6B-1AC9077D4EC5}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{6A9216EE-212E-469B-A122-E8668C6A6ED7}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{F042584E-8087-4C76-B5E7-3FD42641BFF4}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{A373E5FD-0BF6-487C-9FFF-9B473667C602}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{6A1B61CE-E743-4141-A4FA-27B3A8A4D025}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>